--- a/data/yahoofinance/EDV.xlsx
+++ b/data/yahoofinance/EDV.xlsx
@@ -442,7 +442,7 @@
         <v>80.25</v>
       </c>
       <c r="F2">
-        <v>78.60456848144531</v>
+        <v>77.84496307373047</v>
       </c>
       <c r="G2">
         <v>781300</v>
@@ -465,7 +465,7 @@
         <v>80.70999908447266</v>
       </c>
       <c r="F3">
-        <v>79.05513763427734</v>
+        <v>78.29118347167969</v>
       </c>
       <c r="G3">
         <v>892600</v>
@@ -488,7 +488,7 @@
         <v>79.11000061035156</v>
       </c>
       <c r="F4">
-        <v>77.48794555664062</v>
+        <v>76.7391357421875</v>
       </c>
       <c r="G4">
         <v>664900</v>
@@ -511,7 +511,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="F5">
-        <v>76.31255340576172</v>
+        <v>75.57509613037109</v>
       </c>
       <c r="G5">
         <v>973400</v>
@@ -534,7 +534,7 @@
         <v>78.88999938964844</v>
       </c>
       <c r="F6">
-        <v>77.27245330810547</v>
+        <v>76.52571868896484</v>
       </c>
       <c r="G6">
         <v>1493800</v>
@@ -557,7 +557,7 @@
         <v>78.26000213623047</v>
       </c>
       <c r="F7">
-        <v>76.65537261962891</v>
+        <v>75.91460418701172</v>
       </c>
       <c r="G7">
         <v>586700</v>
@@ -580,7 +580,7 @@
         <v>77.61000061035156</v>
       </c>
       <c r="F8">
-        <v>76.01869964599609</v>
+        <v>75.28408813476562</v>
       </c>
       <c r="G8">
         <v>469900</v>
@@ -603,7 +603,7 @@
         <v>78.04000091552734</v>
       </c>
       <c r="F9">
-        <v>76.43988037109375</v>
+        <v>75.70119476318359</v>
       </c>
       <c r="G9">
         <v>433900</v>
@@ -626,7 +626,7 @@
         <v>77.66000366210938</v>
       </c>
       <c r="F10">
-        <v>76.06768035888672</v>
+        <v>75.33258819580078</v>
       </c>
       <c r="G10">
         <v>242900</v>
@@ -649,7 +649,7 @@
         <v>75.83999633789062</v>
       </c>
       <c r="F11">
-        <v>74.28498840332031</v>
+        <v>73.56712341308594</v>
       </c>
       <c r="G11">
         <v>654800</v>
@@ -672,7 +672,7 @@
         <v>75.76000213623047</v>
       </c>
       <c r="F12">
-        <v>74.20663452148438</v>
+        <v>73.48952484130859</v>
       </c>
       <c r="G12">
         <v>405300</v>
@@ -695,7 +695,7 @@
         <v>74.70999908447266</v>
       </c>
       <c r="F13">
-        <v>73.17816162109375</v>
+        <v>72.47099304199219</v>
       </c>
       <c r="G13">
         <v>427100</v>
@@ -718,7 +718,7 @@
         <v>75.08999633789062</v>
       </c>
       <c r="F14">
-        <v>73.55036163330078</v>
+        <v>72.839599609375</v>
       </c>
       <c r="G14">
         <v>347600</v>
@@ -741,7 +741,7 @@
         <v>75.68000030517578</v>
       </c>
       <c r="F15">
-        <v>74.12827301025391</v>
+        <v>73.41192626953125</v>
       </c>
       <c r="G15">
         <v>618700</v>
@@ -764,7 +764,7 @@
         <v>74.87999725341797</v>
       </c>
       <c r="F16">
-        <v>73.34467315673828</v>
+        <v>72.63589477539062</v>
       </c>
       <c r="G16">
         <v>384700</v>
@@ -787,7 +787,7 @@
         <v>74.29000091552734</v>
       </c>
       <c r="F17">
-        <v>72.76677703857422</v>
+        <v>72.06358337402344</v>
       </c>
       <c r="G17">
         <v>434800</v>
@@ -810,7 +810,7 @@
         <v>74.91000366210938</v>
       </c>
       <c r="F18">
-        <v>73.37406921386719</v>
+        <v>72.66500854492188</v>
       </c>
       <c r="G18">
         <v>312600</v>
@@ -833,7 +833,7 @@
         <v>74.75</v>
       </c>
       <c r="F19">
-        <v>73.21734619140625</v>
+        <v>72.50979614257812</v>
       </c>
       <c r="G19">
         <v>230500</v>
@@ -856,7 +856,7 @@
         <v>75.94999694824219</v>
       </c>
       <c r="F20">
-        <v>74.39273834228516</v>
+        <v>73.673828125</v>
       </c>
       <c r="G20">
         <v>945300</v>
@@ -879,7 +879,7 @@
         <v>76.97000122070312</v>
       </c>
       <c r="F21">
-        <v>75.39183044433594</v>
+        <v>74.66326904296875</v>
       </c>
       <c r="G21">
         <v>453300</v>
@@ -902,7 +902,7 @@
         <v>77.80000305175781</v>
       </c>
       <c r="F22">
-        <v>76.20481109619141</v>
+        <v>75.46839904785156</v>
       </c>
       <c r="G22">
         <v>644600</v>
@@ -925,7 +925,7 @@
         <v>80.06999969482422</v>
       </c>
       <c r="F23">
-        <v>78.42826080322266</v>
+        <v>77.67036437988281</v>
       </c>
       <c r="G23">
         <v>674300</v>
@@ -948,7 +948,7 @@
         <v>77.87999725341797</v>
       </c>
       <c r="F24">
-        <v>76.28316497802734</v>
+        <v>75.54598999023438</v>
       </c>
       <c r="G24">
         <v>829500</v>
@@ -971,7 +971,7 @@
         <v>75.63999938964844</v>
       </c>
       <c r="F25">
-        <v>74.08908843994141</v>
+        <v>73.37312316894531</v>
       </c>
       <c r="G25">
         <v>585600</v>
@@ -994,7 +994,7 @@
         <v>76.52999877929688</v>
       </c>
       <c r="F26">
-        <v>74.96083831787109</v>
+        <v>74.23644256591797</v>
       </c>
       <c r="G26">
         <v>374200</v>
@@ -1017,7 +1017,7 @@
         <v>76.11000061035156</v>
       </c>
       <c r="F27">
-        <v>74.54945373535156</v>
+        <v>73.82904052734375</v>
       </c>
       <c r="G27">
         <v>282600</v>
@@ -1040,7 +1040,7 @@
         <v>75.47000122070312</v>
       </c>
       <c r="F28">
-        <v>73.92257690429688</v>
+        <v>73.20822143554688</v>
       </c>
       <c r="G28">
         <v>276500</v>
@@ -1063,7 +1063,7 @@
         <v>75.31999969482422</v>
       </c>
       <c r="F29">
-        <v>73.77565765380859</v>
+        <v>73.06271362304688</v>
       </c>
       <c r="G29">
         <v>222300</v>
@@ -1086,7 +1086,7 @@
         <v>75.37999725341797</v>
       </c>
       <c r="F30">
-        <v>73.83442687988281</v>
+        <v>73.12091827392578</v>
       </c>
       <c r="G30">
         <v>937400</v>
@@ -1109,7 +1109,7 @@
         <v>73.77999877929688</v>
       </c>
       <c r="F31">
-        <v>72.26723480224609</v>
+        <v>71.56887054443359</v>
       </c>
       <c r="G31">
         <v>575600</v>
@@ -1132,7 +1132,7 @@
         <v>74.13999938964844</v>
       </c>
       <c r="F32">
-        <v>72.61985015869141</v>
+        <v>71.91808319091797</v>
       </c>
       <c r="G32">
         <v>400700</v>
@@ -1155,7 +1155,7 @@
         <v>74.65000152587891</v>
       </c>
       <c r="F33">
-        <v>73.11939239501953</v>
+        <v>72.41278839111328</v>
       </c>
       <c r="G33">
         <v>317900</v>
@@ -1178,7 +1178,7 @@
         <v>74.20999908447266</v>
       </c>
       <c r="F34">
-        <v>72.68841552734375</v>
+        <v>71.98598480224609</v>
       </c>
       <c r="G34">
         <v>291400</v>
@@ -1201,7 +1201,7 @@
         <v>74.15000152587891</v>
       </c>
       <c r="F35">
-        <v>72.62964630126953</v>
+        <v>71.92778015136719</v>
       </c>
       <c r="G35">
         <v>238700</v>
@@ -1224,7 +1224,7 @@
         <v>73.47000122070312</v>
       </c>
       <c r="F36">
-        <v>71.96358489990234</v>
+        <v>71.26815795898438</v>
       </c>
       <c r="G36">
         <v>295800</v>
@@ -1247,7 +1247,7 @@
         <v>73.95999908447266</v>
       </c>
       <c r="F37">
-        <v>72.44353485107422</v>
+        <v>71.74346923828125</v>
       </c>
       <c r="G37">
         <v>265200</v>
@@ -1270,7 +1270,7 @@
         <v>75.48999786376953</v>
       </c>
       <c r="F38">
-        <v>73.94216156005859</v>
+        <v>73.22761535644531</v>
       </c>
       <c r="G38">
         <v>342900</v>
@@ -1293,7 +1293,7 @@
         <v>75.08000183105469</v>
       </c>
       <c r="F39">
-        <v>73.54057312011719</v>
+        <v>72.82990264892578</v>
       </c>
       <c r="G39">
         <v>260600</v>
@@ -1316,7 +1316,7 @@
         <v>74.37999725341797</v>
       </c>
       <c r="F40">
-        <v>72.85492706298828</v>
+        <v>72.15087890625</v>
       </c>
       <c r="G40">
         <v>324500</v>
@@ -1339,7 +1339,7 @@
         <v>75</v>
       </c>
       <c r="F41">
-        <v>73.46221160888672</v>
+        <v>72.75230407714844</v>
       </c>
       <c r="G41">
         <v>301500</v>
@@ -1362,7 +1362,7 @@
         <v>75.76000213623047</v>
       </c>
       <c r="F42">
-        <v>74.20663452148438</v>
+        <v>73.48952484130859</v>
       </c>
       <c r="G42">
         <v>398400</v>
@@ -1385,7 +1385,7 @@
         <v>76.34999847412109</v>
       </c>
       <c r="F43">
-        <v>74.78453826904297</v>
+        <v>74.06184387207031</v>
       </c>
       <c r="G43">
         <v>472600</v>
@@ -1408,7 +1408,7 @@
         <v>76.02999877929688</v>
       </c>
       <c r="F44">
-        <v>74.47109222412109</v>
+        <v>73.75143432617188</v>
       </c>
       <c r="G44">
         <v>1149300</v>
@@ -1431,7 +1431,7 @@
         <v>77.51000213623047</v>
       </c>
       <c r="F45">
-        <v>75.92074584960938</v>
+        <v>75.18708038330078</v>
       </c>
       <c r="G45">
         <v>387200</v>
@@ -1454,7 +1454,7 @@
         <v>78.05999755859375</v>
       </c>
       <c r="F46">
-        <v>76.45946502685547</v>
+        <v>75.72059631347656</v>
       </c>
       <c r="G46">
         <v>398500</v>
@@ -1477,7 +1477,7 @@
         <v>77.88999938964844</v>
       </c>
       <c r="F47">
-        <v>76.29296112060547</v>
+        <v>75.55569458007812</v>
       </c>
       <c r="G47">
         <v>467900</v>
@@ -1500,7 +1500,7 @@
         <v>77.75</v>
       </c>
       <c r="F48">
-        <v>76.15583038330078</v>
+        <v>75.41988372802734</v>
       </c>
       <c r="G48">
         <v>641300</v>
@@ -1523,7 +1523,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="F49">
-        <v>76.02849578857422</v>
+        <v>75.29378509521484</v>
       </c>
       <c r="G49">
         <v>471300</v>
@@ -1546,7 +1546,7 @@
         <v>76.77999877929688</v>
       </c>
       <c r="F50">
-        <v>75.20571899414062</v>
+        <v>74.47895812988281</v>
       </c>
       <c r="G50">
         <v>376700</v>
@@ -1569,7 +1569,7 @@
         <v>76.27999877929688</v>
       </c>
       <c r="F51">
-        <v>74.71597290039062</v>
+        <v>73.99394989013672</v>
       </c>
       <c r="G51">
         <v>282600</v>
@@ -1592,7 +1592,7 @@
         <v>74.58000183105469</v>
       </c>
       <c r="F52">
-        <v>73.05082702636719</v>
+        <v>72.34488677978516</v>
       </c>
       <c r="G52">
         <v>594700</v>
@@ -1615,7 +1615,7 @@
         <v>74.69999694824219</v>
       </c>
       <c r="F53">
-        <v>73.16836547851562</v>
+        <v>72.46129608154297</v>
       </c>
       <c r="G53">
         <v>680700</v>
@@ -1638,7 +1638,7 @@
         <v>74.34999847412109</v>
       </c>
       <c r="F54">
-        <v>72.82554626464844</v>
+        <v>72.12178039550781</v>
       </c>
       <c r="G54">
         <v>264400</v>
@@ -1661,7 +1661,7 @@
         <v>74.62000274658203</v>
       </c>
       <c r="F55">
-        <v>73.09001159667969</v>
+        <v>72.38369750976562</v>
       </c>
       <c r="G55">
         <v>824900</v>
@@ -1684,7 +1684,7 @@
         <v>74.43000030517578</v>
       </c>
       <c r="F56">
-        <v>72.90390014648438</v>
+        <v>72.19938659667969</v>
       </c>
       <c r="G56">
         <v>334300</v>
@@ -1707,7 +1707,7 @@
         <v>74.62999725341797</v>
       </c>
       <c r="F57">
-        <v>73.09980010986328</v>
+        <v>72.39338684082031</v>
       </c>
       <c r="G57">
         <v>492900</v>
@@ -1730,7 +1730,7 @@
         <v>75.66000366210938</v>
       </c>
       <c r="F58">
-        <v>74.10868835449219</v>
+        <v>73.39253234863281</v>
       </c>
       <c r="G58">
         <v>227400</v>
@@ -1753,7 +1753,7 @@
         <v>75.12000274658203</v>
       </c>
       <c r="F59">
-        <v>73.57975769042969</v>
+        <v>72.86870574951172</v>
       </c>
       <c r="G59">
         <v>312400</v>
@@ -1776,7 +1776,7 @@
         <v>75.54000091552734</v>
       </c>
       <c r="F60">
-        <v>73.99114227294922</v>
+        <v>73.276123046875</v>
       </c>
       <c r="G60">
         <v>252400</v>
@@ -1799,7 +1799,7 @@
         <v>76.41999816894531</v>
       </c>
       <c r="F61">
-        <v>74.85310363769531</v>
+        <v>74.12974548339844</v>
       </c>
       <c r="G61">
         <v>646000</v>
@@ -1822,7 +1822,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="F62">
-        <v>75.02940368652344</v>
+        <v>74.30435180664062</v>
       </c>
       <c r="G62">
         <v>777200</v>
@@ -1845,7 +1845,7 @@
         <v>73.69000244140625</v>
       </c>
       <c r="F63">
-        <v>72.91104125976562</v>
+        <v>72.20645141601562</v>
       </c>
       <c r="G63">
         <v>1116700</v>
@@ -1868,7 +1868,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F64">
-        <v>72.45590972900391</v>
+        <v>71.75572204589844</v>
       </c>
       <c r="G64">
         <v>563800</v>
@@ -1891,7 +1891,7 @@
         <v>73.05000305175781</v>
       </c>
       <c r="F65">
-        <v>72.27780914306641</v>
+        <v>71.579345703125</v>
       </c>
       <c r="G65">
         <v>552900</v>
@@ -1914,7 +1914,7 @@
         <v>73.80000305175781</v>
       </c>
       <c r="F66">
-        <v>73.01988220214844</v>
+        <v>72.31424713134766</v>
       </c>
       <c r="G66">
         <v>483600</v>
@@ -1937,7 +1937,7 @@
         <v>72.44000244140625</v>
       </c>
       <c r="F67">
-        <v>71.67425537109375</v>
+        <v>70.98162078857422</v>
       </c>
       <c r="G67">
         <v>353100</v>
@@ -1960,7 +1960,7 @@
         <v>72.44999694824219</v>
       </c>
       <c r="F68">
-        <v>71.68414306640625</v>
+        <v>70.99141693115234</v>
       </c>
       <c r="G68">
         <v>425500</v>
@@ -1983,7 +1983,7 @@
         <v>73.33000183105469</v>
       </c>
       <c r="F69">
-        <v>72.55484771728516</v>
+        <v>71.85370635986328</v>
       </c>
       <c r="G69">
         <v>229900</v>
@@ -2006,7 +2006,7 @@
         <v>71.36000061035156</v>
       </c>
       <c r="F70">
-        <v>70.60566711425781</v>
+        <v>69.92336273193359</v>
       </c>
       <c r="G70">
         <v>801300</v>
@@ -2029,7 +2029,7 @@
         <v>70.83000183105469</v>
       </c>
       <c r="F71">
-        <v>70.08127593994141</v>
+        <v>69.40403747558594</v>
       </c>
       <c r="G71">
         <v>370300</v>
@@ -2052,7 +2052,7 @@
         <v>71.34999847412109</v>
       </c>
       <c r="F72">
-        <v>70.59577178955078</v>
+        <v>69.91355895996094</v>
       </c>
       <c r="G72">
         <v>251100</v>
@@ -2075,7 +2075,7 @@
         <v>69.73999786376953</v>
       </c>
       <c r="F73">
-        <v>69.00279235839844</v>
+        <v>68.33597564697266</v>
       </c>
       <c r="G73">
         <v>735700</v>
@@ -2098,7 +2098,7 @@
         <v>69.06999969482422</v>
       </c>
       <c r="F74">
-        <v>68.33987426757812</v>
+        <v>67.67945861816406</v>
       </c>
       <c r="G74">
         <v>1197600</v>
@@ -2121,7 +2121,7 @@
         <v>70.05000305175781</v>
       </c>
       <c r="F75">
-        <v>69.30952453613281</v>
+        <v>68.63973999023438</v>
       </c>
       <c r="G75">
         <v>310800</v>
@@ -2144,7 +2144,7 @@
         <v>69.61000061035156</v>
       </c>
       <c r="F76">
-        <v>68.87416839599609</v>
+        <v>68.20859527587891</v>
       </c>
       <c r="G76">
         <v>237400</v>
@@ -2167,7 +2167,7 @@
         <v>69.93000030517578</v>
       </c>
       <c r="F77">
-        <v>69.19078826904297</v>
+        <v>68.52215576171875</v>
       </c>
       <c r="G77">
         <v>266300</v>
@@ -2190,7 +2190,7 @@
         <v>69.83000183105469</v>
       </c>
       <c r="F78">
-        <v>69.09184265136719</v>
+        <v>68.42416381835938</v>
       </c>
       <c r="G78">
         <v>246000</v>
@@ -2213,7 +2213,7 @@
         <v>69.70999908447266</v>
       </c>
       <c r="F79">
-        <v>68.97311401367188</v>
+        <v>68.30657958984375</v>
       </c>
       <c r="G79">
         <v>311200</v>
@@ -2236,7 +2236,7 @@
         <v>68.95999908447266</v>
       </c>
       <c r="F80">
-        <v>68.23104095458984</v>
+        <v>67.57167816162109</v>
       </c>
       <c r="G80">
         <v>423900</v>
@@ -2259,7 +2259,7 @@
         <v>68.41000366210938</v>
       </c>
       <c r="F81">
-        <v>67.68685913085938</v>
+        <v>67.03276062011719</v>
       </c>
       <c r="G81">
         <v>382800</v>
@@ -2282,7 +2282,7 @@
         <v>68.83999633789062</v>
       </c>
       <c r="F82">
-        <v>68.1123046875</v>
+        <v>67.45409393310547</v>
       </c>
       <c r="G82">
         <v>305400</v>
@@ -2305,7 +2305,7 @@
         <v>69.58999633789062</v>
       </c>
       <c r="F83">
-        <v>68.85437774658203</v>
+        <v>68.18899536132812</v>
       </c>
       <c r="G83">
         <v>309600</v>
@@ -2328,7 +2328,7 @@
         <v>68.88999938964844</v>
       </c>
       <c r="F84">
-        <v>68.16178131103516</v>
+        <v>67.50308990478516</v>
       </c>
       <c r="G84">
         <v>230000</v>
@@ -2351,7 +2351,7 @@
         <v>69.79000091552734</v>
       </c>
       <c r="F85">
-        <v>69.05226898193359</v>
+        <v>68.38497161865234</v>
       </c>
       <c r="G85">
         <v>296300</v>
@@ -2374,7 +2374,7 @@
         <v>69.76999664306641</v>
       </c>
       <c r="F86">
-        <v>69.032470703125</v>
+        <v>68.36536407470703</v>
       </c>
       <c r="G86">
         <v>471200</v>
@@ -2397,7 +2397,7 @@
         <v>70.75</v>
       </c>
       <c r="F87">
-        <v>70.00212097167969</v>
+        <v>69.32564544677734</v>
       </c>
       <c r="G87">
         <v>376900</v>
@@ -2420,7 +2420,7 @@
         <v>71.23999786376953</v>
       </c>
       <c r="F88">
-        <v>70.4869384765625</v>
+        <v>69.80577850341797</v>
       </c>
       <c r="G88">
         <v>349900</v>
@@ -2443,7 +2443,7 @@
         <v>71.98000335693359</v>
       </c>
       <c r="F89">
-        <v>71.2191162109375</v>
+        <v>70.5308837890625</v>
       </c>
       <c r="G89">
         <v>275400</v>
@@ -2466,7 +2466,7 @@
         <v>71.33000183105469</v>
       </c>
       <c r="F90">
-        <v>70.57598876953125</v>
+        <v>69.89396667480469</v>
       </c>
       <c r="G90">
         <v>203700</v>
@@ -2489,7 +2489,7 @@
         <v>71.80000305175781</v>
       </c>
       <c r="F91">
-        <v>71.04102325439453</v>
+        <v>70.35450744628906</v>
       </c>
       <c r="G91">
         <v>183600</v>
@@ -2512,7 +2512,7 @@
         <v>71.26999664306641</v>
       </c>
       <c r="F92">
-        <v>70.51661682128906</v>
+        <v>69.83516693115234</v>
       </c>
       <c r="G92">
         <v>159300</v>
@@ -2535,7 +2535,7 @@
         <v>71.5</v>
       </c>
       <c r="F93">
-        <v>70.74419403076172</v>
+        <v>70.060546875</v>
       </c>
       <c r="G93">
         <v>159200</v>
@@ -2558,7 +2558,7 @@
         <v>71.94999694824219</v>
       </c>
       <c r="F94">
-        <v>71.18943023681641</v>
+        <v>70.50148010253906</v>
       </c>
       <c r="G94">
         <v>163000</v>
@@ -2581,7 +2581,7 @@
         <v>73.43000030517578</v>
       </c>
       <c r="F95">
-        <v>72.65378570556641</v>
+        <v>71.95168304443359</v>
       </c>
       <c r="G95">
         <v>507100</v>
@@ -2604,7 +2604,7 @@
         <v>73.29000091552734</v>
       </c>
       <c r="F96">
-        <v>72.51526641845703</v>
+        <v>71.81450653076172</v>
       </c>
       <c r="G96">
         <v>367300</v>
@@ -2627,7 +2627,7 @@
         <v>72.66999816894531</v>
       </c>
       <c r="F97">
-        <v>71.90181732177734</v>
+        <v>71.20698547363281</v>
       </c>
       <c r="G97">
         <v>332900</v>
@@ -2650,7 +2650,7 @@
         <v>72.38999938964844</v>
       </c>
       <c r="F98">
-        <v>71.62477874755859</v>
+        <v>70.93262481689453</v>
       </c>
       <c r="G98">
         <v>233500</v>
@@ -2673,7 +2673,7 @@
         <v>72.90000152587891</v>
       </c>
       <c r="F99">
-        <v>72.12939453125</v>
+        <v>71.43236541748047</v>
       </c>
       <c r="G99">
         <v>197200</v>
@@ -2696,7 +2696,7 @@
         <v>73.05999755859375</v>
       </c>
       <c r="F100">
-        <v>72.28769683837891</v>
+        <v>71.58913421630859</v>
       </c>
       <c r="G100">
         <v>281900</v>
@@ -2719,7 +2719,7 @@
         <v>72.47000122070312</v>
       </c>
       <c r="F101">
-        <v>71.70394134521484</v>
+        <v>71.01101684570312</v>
       </c>
       <c r="G101">
         <v>267400</v>
@@ -2742,7 +2742,7 @@
         <v>72.84999847412109</v>
       </c>
       <c r="F102">
-        <v>72.07991790771484</v>
+        <v>71.38336181640625</v>
       </c>
       <c r="G102">
         <v>274700</v>
@@ -2765,7 +2765,7 @@
         <v>71.16999816894531</v>
       </c>
       <c r="F103">
-        <v>70.41767883300781</v>
+        <v>69.73719024658203</v>
       </c>
       <c r="G103">
         <v>431600</v>
@@ -2788,7 +2788,7 @@
         <v>69.95999908447266</v>
       </c>
       <c r="F104">
-        <v>69.22046661376953</v>
+        <v>68.55154418945312</v>
       </c>
       <c r="G104">
         <v>371000</v>
@@ -2811,7 +2811,7 @@
         <v>70.88999938964844</v>
       </c>
       <c r="F105">
-        <v>70.14064025878906</v>
+        <v>69.46282958984375</v>
       </c>
       <c r="G105">
         <v>243700</v>
@@ -2834,7 +2834,7 @@
         <v>71.62000274658203</v>
       </c>
       <c r="F106">
-        <v>70.86292266845703</v>
+        <v>70.17813110351562</v>
       </c>
       <c r="G106">
         <v>320400</v>
@@ -2857,7 +2857,7 @@
         <v>73.15000152587891</v>
       </c>
       <c r="F107">
-        <v>72.37674713134766</v>
+        <v>71.67732238769531</v>
       </c>
       <c r="G107">
         <v>468500</v>
@@ -2880,7 +2880,7 @@
         <v>74.36000061035156</v>
       </c>
       <c r="F108">
-        <v>73.57395935058594</v>
+        <v>72.86296844482422</v>
       </c>
       <c r="G108">
         <v>461900</v>
@@ -2903,7 +2903,7 @@
         <v>75</v>
       </c>
       <c r="F109">
-        <v>74.20719146728516</v>
+        <v>73.49008178710938</v>
       </c>
       <c r="G109">
         <v>722900</v>
@@ -2926,7 +2926,7 @@
         <v>75.04000091552734</v>
       </c>
       <c r="F110">
-        <v>74.24677276611328</v>
+        <v>73.52928161621094</v>
       </c>
       <c r="G110">
         <v>267700</v>
@@ -2949,7 +2949,7 @@
         <v>73.02999877929688</v>
       </c>
       <c r="F111">
-        <v>72.25801849365234</v>
+        <v>71.55974578857422</v>
       </c>
       <c r="G111">
         <v>757800</v>
@@ -2972,7 +2972,7 @@
         <v>72.36000061035156</v>
       </c>
       <c r="F112">
-        <v>71.59510040283203</v>
+        <v>70.90322875976562</v>
       </c>
       <c r="G112">
         <v>391000</v>
@@ -2995,7 +2995,7 @@
         <v>73.37000274658203</v>
       </c>
       <c r="F113">
-        <v>72.59442901611328</v>
+        <v>71.89290618896484</v>
       </c>
       <c r="G113">
         <v>359600</v>
@@ -3018,7 +3018,7 @@
         <v>74.11000061035156</v>
       </c>
       <c r="F114">
-        <v>73.32659912109375</v>
+        <v>72.61799621582031</v>
       </c>
       <c r="G114">
         <v>436300</v>
@@ -3041,7 +3041,7 @@
         <v>75.65000152587891</v>
       </c>
       <c r="F115">
-        <v>74.85032653808594</v>
+        <v>74.12699890136719</v>
       </c>
       <c r="G115">
         <v>424700</v>
@@ -3064,7 +3064,7 @@
         <v>76.58000183105469</v>
       </c>
       <c r="F116">
-        <v>75.77049255371094</v>
+        <v>75.03827667236328</v>
       </c>
       <c r="G116">
         <v>831200</v>
@@ -3087,7 +3087,7 @@
         <v>75.48999786376953</v>
       </c>
       <c r="F117">
-        <v>74.69200897216797</v>
+        <v>73.97021484375</v>
       </c>
       <c r="G117">
         <v>1177000</v>
@@ -3110,7 +3110,7 @@
         <v>76.54000091552734</v>
       </c>
       <c r="F118">
-        <v>75.73091125488281</v>
+        <v>74.99907684326172</v>
       </c>
       <c r="G118">
         <v>833300</v>
@@ -3133,7 +3133,7 @@
         <v>75.73999786376953</v>
       </c>
       <c r="F119">
-        <v>74.93936920166016</v>
+        <v>74.21517944335938</v>
       </c>
       <c r="G119">
         <v>487700</v>
@@ -3156,7 +3156,7 @@
         <v>75.75</v>
       </c>
       <c r="F120">
-        <v>74.94926452636719</v>
+        <v>74.22498321533203</v>
       </c>
       <c r="G120">
         <v>233900</v>
@@ -3179,7 +3179,7 @@
         <v>76.22000122070312</v>
       </c>
       <c r="F121">
-        <v>75.41429901123047</v>
+        <v>74.68552398681641</v>
       </c>
       <c r="G121">
         <v>513300</v>
@@ -3202,7 +3202,7 @@
         <v>76.38999938964844</v>
       </c>
       <c r="F122">
-        <v>75.58249664306641</v>
+        <v>74.85209655761719</v>
       </c>
       <c r="G122">
         <v>421300</v>
@@ -3225,7 +3225,7 @@
         <v>75</v>
       </c>
       <c r="F123">
-        <v>74.20719146728516</v>
+        <v>73.49008178710938</v>
       </c>
       <c r="G123">
         <v>362800</v>
@@ -3248,7 +3248,7 @@
         <v>75.16999816894531</v>
       </c>
       <c r="F124">
-        <v>74.37539672851562</v>
+        <v>73.65666198730469</v>
       </c>
       <c r="G124">
         <v>237100</v>
@@ -3271,7 +3271,7 @@
         <v>73.41000366210938</v>
       </c>
       <c r="F125">
-        <v>72.63400268554688</v>
+        <v>71.93209075927734</v>
       </c>
       <c r="G125">
         <v>453600</v>
@@ -3294,7 +3294,7 @@
         <v>70.73000335693359</v>
       </c>
       <c r="F126">
-        <v>70.73000335693359</v>
+        <v>70.04649353027344</v>
       </c>
       <c r="G126">
         <v>963900</v>
@@ -3317,7 +3317,7 @@
         <v>71.41999816894531</v>
       </c>
       <c r="F127">
-        <v>71.41999816894531</v>
+        <v>70.72982025146484</v>
       </c>
       <c r="G127">
         <v>937400</v>
@@ -3340,7 +3340,7 @@
         <v>72.66000366210938</v>
       </c>
       <c r="F128">
-        <v>72.66000366210938</v>
+        <v>71.95783996582031</v>
       </c>
       <c r="G128">
         <v>371200</v>
@@ -3363,7 +3363,7 @@
         <v>73.38999938964844</v>
       </c>
       <c r="F129">
-        <v>73.38999938964844</v>
+        <v>72.6807861328125</v>
       </c>
       <c r="G129">
         <v>408800</v>
@@ -3386,7 +3386,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="F130">
-        <v>73.61000061035156</v>
+        <v>72.89865875244141</v>
       </c>
       <c r="G130">
         <v>208900</v>
@@ -3409,7 +3409,7 @@
         <v>73.16999816894531</v>
       </c>
       <c r="F131">
-        <v>73.16999816894531</v>
+        <v>72.46290588378906</v>
       </c>
       <c r="G131">
         <v>500400</v>
@@ -3432,7 +3432,7 @@
         <v>73.54000091552734</v>
       </c>
       <c r="F132">
-        <v>73.54000091552734</v>
+        <v>72.82933807373047</v>
       </c>
       <c r="G132">
         <v>333200</v>
@@ -3455,7 +3455,7 @@
         <v>74.55000305175781</v>
       </c>
       <c r="F133">
-        <v>74.55000305175781</v>
+        <v>73.82958221435547</v>
       </c>
       <c r="G133">
         <v>747300</v>
@@ -3478,7 +3478,7 @@
         <v>74.83999633789062</v>
       </c>
       <c r="F134">
-        <v>74.83999633789062</v>
+        <v>74.11676788330078</v>
       </c>
       <c r="G134">
         <v>511200</v>
@@ -3501,7 +3501,7 @@
         <v>73.62999725341797</v>
       </c>
       <c r="F135">
-        <v>73.62999725341797</v>
+        <v>72.91846466064453</v>
       </c>
       <c r="G135">
         <v>487700</v>
@@ -3524,7 +3524,7 @@
         <v>75.12999725341797</v>
       </c>
       <c r="F136">
-        <v>75.12999725341797</v>
+        <v>74.40396881103516</v>
       </c>
       <c r="G136">
         <v>904000</v>
@@ -3547,7 +3547,7 @@
         <v>75.16000366210938</v>
       </c>
       <c r="F137">
-        <v>75.16000366210938</v>
+        <v>74.43368530273438</v>
       </c>
       <c r="G137">
         <v>565700</v>
@@ -3570,7 +3570,7 @@
         <v>74.38999938964844</v>
       </c>
       <c r="F138">
-        <v>74.38999938964844</v>
+        <v>73.67111968994141</v>
       </c>
       <c r="G138">
         <v>312300</v>
@@ -3593,7 +3593,7 @@
         <v>73.80999755859375</v>
       </c>
       <c r="F139">
-        <v>73.80999755859375</v>
+        <v>73.09672546386719</v>
       </c>
       <c r="G139">
         <v>533200</v>
@@ -3616,7 +3616,7 @@
         <v>73.34999847412109</v>
       </c>
       <c r="F140">
-        <v>73.34999847412109</v>
+        <v>72.64116668701172</v>
       </c>
       <c r="G140">
         <v>505000</v>
@@ -3639,7 +3639,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F141">
-        <v>73.23000335693359</v>
+        <v>72.52233123779297</v>
       </c>
       <c r="G141">
         <v>262900</v>
@@ -3662,7 +3662,7 @@
         <v>72.04000091552734</v>
       </c>
       <c r="F142">
-        <v>72.04000091552734</v>
+        <v>71.34383392333984</v>
       </c>
       <c r="G142">
         <v>701200</v>
@@ -3685,7 +3685,7 @@
         <v>72.88999938964844</v>
       </c>
       <c r="F143">
-        <v>72.88999938964844</v>
+        <v>72.18561553955078</v>
       </c>
       <c r="G143">
         <v>522800</v>
@@ -3708,7 +3708,7 @@
         <v>73.59999847412109</v>
       </c>
       <c r="F144">
-        <v>73.59999847412109</v>
+        <v>72.88875579833984</v>
       </c>
       <c r="G144">
         <v>254400</v>
@@ -3731,7 +3731,7 @@
         <v>74.23999786376953</v>
       </c>
       <c r="F145">
-        <v>74.23999786376953</v>
+        <v>73.52256774902344</v>
       </c>
       <c r="G145">
         <v>298200</v>
@@ -3754,7 +3754,7 @@
         <v>74.5</v>
       </c>
       <c r="F146">
-        <v>74.5</v>
+        <v>73.78005981445312</v>
       </c>
       <c r="G146">
         <v>455100</v>
@@ -3777,7 +3777,7 @@
         <v>75.56999969482422</v>
       </c>
       <c r="F147">
-        <v>75.56999969482422</v>
+        <v>74.8397216796875</v>
       </c>
       <c r="G147">
         <v>653700</v>
@@ -3800,7 +3800,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="F148">
-        <v>76.56999969482422</v>
+        <v>75.83005523681641</v>
       </c>
       <c r="G148">
         <v>975900</v>
@@ -3823,7 +3823,7 @@
         <v>79.69999694824219</v>
       </c>
       <c r="F149">
-        <v>79.69999694824219</v>
+        <v>78.92980194091797</v>
       </c>
       <c r="G149">
         <v>1794800</v>
@@ -3846,7 +3846,7 @@
         <v>80.34999847412109</v>
       </c>
       <c r="F150">
-        <v>80.34999847412109</v>
+        <v>79.57352447509766</v>
       </c>
       <c r="G150">
         <v>2457100</v>
@@ -3869,7 +3869,7 @@
         <v>77.87999725341797</v>
       </c>
       <c r="F151">
-        <v>77.87999725341797</v>
+        <v>77.12739562988281</v>
       </c>
       <c r="G151">
         <v>1340400</v>
@@ -3892,7 +3892,7 @@
         <v>76.94000244140625</v>
       </c>
       <c r="F152">
-        <v>76.94000244140625</v>
+        <v>76.19647979736328</v>
       </c>
       <c r="G152">
         <v>887000</v>
@@ -3915,7 +3915,7 @@
         <v>76.29000091552734</v>
       </c>
       <c r="F153">
-        <v>76.29000091552734</v>
+        <v>75.55276489257812</v>
       </c>
       <c r="G153">
         <v>692600</v>
@@ -3938,7 +3938,7 @@
         <v>77.55000305175781</v>
       </c>
       <c r="F154">
-        <v>77.55000305175781</v>
+        <v>76.80059051513672</v>
       </c>
       <c r="G154">
         <v>1164300</v>
@@ -3961,7 +3961,7 @@
         <v>77.83999633789062</v>
       </c>
       <c r="F155">
-        <v>77.83999633789062</v>
+        <v>77.08777618408203</v>
       </c>
       <c r="G155">
         <v>893400</v>
@@ -3984,7 +3984,7 @@
         <v>78.58999633789062</v>
       </c>
       <c r="F156">
-        <v>78.58999633789062</v>
+        <v>77.83052825927734</v>
       </c>
       <c r="G156">
         <v>631800</v>
@@ -4007,7 +4007,7 @@
         <v>79.34999847412109</v>
       </c>
       <c r="F157">
-        <v>79.34999847412109</v>
+        <v>78.58319091796875</v>
       </c>
       <c r="G157">
         <v>517500</v>
@@ -4030,7 +4030,7 @@
         <v>78.48000335693359</v>
       </c>
       <c r="F158">
-        <v>78.48000335693359</v>
+        <v>77.72160339355469</v>
       </c>
       <c r="G158">
         <v>966100</v>
@@ -4053,7 +4053,7 @@
         <v>78.87999725341797</v>
       </c>
       <c r="F159">
-        <v>78.87999725341797</v>
+        <v>78.11772918701172</v>
       </c>
       <c r="G159">
         <v>694400</v>
@@ -4076,7 +4076,7 @@
         <v>79.45999908447266</v>
       </c>
       <c r="F160">
-        <v>79.45999908447266</v>
+        <v>78.69212341308594</v>
       </c>
       <c r="G160">
         <v>461600</v>
@@ -4099,7 +4099,7 @@
         <v>80.40000152587891</v>
       </c>
       <c r="F161">
-        <v>80.40000152587891</v>
+        <v>79.623046875</v>
       </c>
       <c r="G161">
         <v>640000</v>
@@ -4122,7 +4122,7 @@
         <v>80.44000244140625</v>
       </c>
       <c r="F162">
-        <v>80.44000244140625</v>
+        <v>79.66265869140625</v>
       </c>
       <c r="G162">
         <v>628600</v>
@@ -4145,7 +4145,7 @@
         <v>79.25</v>
       </c>
       <c r="F163">
-        <v>79.25</v>
+        <v>78.48415374755859</v>
       </c>
       <c r="G163">
         <v>967700</v>
@@ -4168,7 +4168,7 @@
         <v>79.84999847412109</v>
       </c>
       <c r="F164">
-        <v>79.84999847412109</v>
+        <v>79.07835388183594</v>
       </c>
       <c r="G164">
         <v>1190000</v>
@@ -4191,7 +4191,7 @@
         <v>79.61000061035156</v>
       </c>
       <c r="F165">
-        <v>79.61000061035156</v>
+        <v>78.84067535400391</v>
       </c>
       <c r="G165">
         <v>598600</v>
@@ -4214,7 +4214,7 @@
         <v>79.37000274658203</v>
       </c>
       <c r="F166">
-        <v>79.37000274658203</v>
+        <v>78.60299682617188</v>
       </c>
       <c r="G166">
         <v>443500</v>
@@ -4237,7 +4237,7 @@
         <v>79.25</v>
       </c>
       <c r="F167">
-        <v>79.25</v>
+        <v>78.48415374755859</v>
       </c>
       <c r="G167">
         <v>426200</v>
@@ -4260,7 +4260,7 @@
         <v>78.86000061035156</v>
       </c>
       <c r="F168">
-        <v>78.86000061035156</v>
+        <v>78.09792327880859</v>
       </c>
       <c r="G168">
         <v>579000</v>
@@ -4283,7 +4283,7 @@
         <v>77.70999908447266</v>
       </c>
       <c r="F169">
-        <v>77.70999908447266</v>
+        <v>76.95903778076172</v>
       </c>
       <c r="G169">
         <v>680600</v>
